--- a/3_Component_Results/EXPORT/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -440,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,296 +474,320 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-1.80568532111454</v>
+        <v>-0.740857461610962</v>
       </c>
       <c r="C2">
-        <v>-0.8164782058068616</v>
+        <v>0.2483496536967165</v>
       </c>
       <c r="D2">
-        <v>-0.2615426411728683</v>
+        <v>0.8032852183307098</v>
       </c>
       <c r="E2">
-        <v>-0.04953154431774665</v>
+        <v>1.015296315185831</v>
       </c>
       <c r="F2">
-        <v>-0.6375830412540486</v>
+        <v>0.4272448182495295</v>
       </c>
       <c r="G2">
-        <v>-1.053743146370851</v>
+        <v>0.01108471313272752</v>
       </c>
       <c r="H2">
-        <v>0.3363999086733689</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>1.401227768176947</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.8198996279475285</v>
+        <v>0.2917404373296907</v>
       </c>
       <c r="C3">
-        <v>-0.2649640633135352</v>
+        <v>0.8466760019636841</v>
       </c>
       <c r="D3">
-        <v>-0.05295296645841352</v>
+        <v>1.058687098818806</v>
       </c>
       <c r="E3">
-        <v>-0.6410044633947155</v>
+        <v>0.4706356018825037</v>
       </c>
       <c r="F3">
-        <v>-1.057164568511517</v>
+        <v>0.05447549676570174</v>
       </c>
       <c r="G3">
-        <v>0.332978486532702</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>1.444618551809921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09624864201792938</v>
+        <v>1.247683574918372</v>
       </c>
       <c r="C4">
-        <v>0.1157624548371923</v>
+        <v>1.459694671773494</v>
       </c>
       <c r="D4">
-        <v>-0.4722890420991097</v>
+        <v>0.8716431748371921</v>
       </c>
       <c r="E4">
-        <v>-0.8884491472159117</v>
+        <v>0.4554830697203902</v>
       </c>
       <c r="F4">
-        <v>0.5016939078283078</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>1.84562612476461</v>
+      </c>
+      <c r="G4">
+        <v>1.076491995083831</v>
+      </c>
+      <c r="H4">
+        <v>-0.7442442573846902</v>
+      </c>
+      <c r="I4">
+        <v>1.069262038377534</v>
+      </c>
+      <c r="J4">
+        <v>0.4350014876132097</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>2.513164750245394</v>
+        <v>3.694617372890321</v>
       </c>
       <c r="C5">
-        <v>1.925113253309092</v>
+        <v>3.106565875954019</v>
       </c>
       <c r="D5">
-        <v>1.50895314819229</v>
+        <v>2.690405770837217</v>
       </c>
       <c r="E5">
-        <v>2.89909620323651</v>
+        <v>4.080548825881436</v>
       </c>
       <c r="F5">
-        <v>2.129962073555731</v>
+        <v>3.311414696200658</v>
       </c>
       <c r="G5">
-        <v>0.3092258210872101</v>
+        <v>1.490678443732137</v>
       </c>
       <c r="H5">
-        <v>2.122732116849434</v>
+        <v>3.304184739494361</v>
       </c>
       <c r="I5">
-        <v>1.48847156608511</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>2.669924188730037</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.6187638406063201</v>
+        <v>1.216530487278416</v>
       </c>
       <c r="C6">
-        <v>0.2026037354895181</v>
+        <v>0.8003703821616144</v>
       </c>
       <c r="D6">
-        <v>1.592746790533738</v>
+        <v>2.190513437205834</v>
       </c>
       <c r="E6">
-        <v>0.8236126608529588</v>
+        <v>1.421379307525055</v>
       </c>
       <c r="F6">
-        <v>-0.9971235916155623</v>
+        <v>-0.399356944943466</v>
       </c>
       <c r="G6">
-        <v>0.8163827041466618</v>
+        <v>1.414149350818758</v>
       </c>
       <c r="H6">
-        <v>0.1821221533823376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.779888800054434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.08370876838569058</v>
+        <v>0.4476790584865185</v>
       </c>
       <c r="C7">
-        <v>1.306434286658529</v>
+        <v>1.837822113530738</v>
       </c>
       <c r="D7">
-        <v>0.5373001569777501</v>
+        <v>1.068687983849959</v>
       </c>
       <c r="E7">
-        <v>-1.283436095490771</v>
+        <v>-0.7520482686185619</v>
       </c>
       <c r="F7">
-        <v>0.5300702002714531</v>
+        <v>1.061458027143662</v>
       </c>
       <c r="G7">
-        <v>-0.1041903504928711</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.427197476379338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>1.162365732246742</v>
+        <v>1.594404170131267</v>
       </c>
       <c r="C8">
-        <v>0.3932316025659631</v>
+        <v>0.8252700404504878</v>
       </c>
       <c r="D8">
-        <v>-1.427504649902558</v>
+        <v>-0.9954662120180333</v>
       </c>
       <c r="E8">
-        <v>0.3860016458596661</v>
+        <v>0.8180400837441908</v>
       </c>
       <c r="F8">
-        <v>-0.2482589049046581</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.1837795329798666</v>
+      </c>
+      <c r="G8">
+        <v>1.265495818666463</v>
+      </c>
+      <c r="H8">
+        <v>0.8840541853673727</v>
+      </c>
+      <c r="I8">
+        <v>0.5915919440004813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.1821111233484686</v>
+        <v>0.4048306212132332</v>
       </c>
       <c r="C9">
-        <v>-1.638625129120052</v>
+        <v>-1.415905631255288</v>
       </c>
       <c r="D9">
-        <v>0.1748811666421716</v>
+        <v>0.3976006645069362</v>
       </c>
       <c r="E9">
-        <v>-0.4593793841221526</v>
+        <v>-0.236659886257388</v>
       </c>
       <c r="F9">
-        <v>0.6223369015644438</v>
+        <v>0.8450563994292083</v>
       </c>
       <c r="G9">
-        <v>0.2408952682653535</v>
+        <v>0.4636147661301181</v>
       </c>
       <c r="H9">
-        <v>-0.05156697310153784</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.1711525247632267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-1.809181604595067</v>
+        <v>-1.433992460878194</v>
       </c>
       <c r="C10">
-        <v>0.004324691167157391</v>
+        <v>0.3795138348840296</v>
       </c>
       <c r="D10">
-        <v>-0.6299358595971668</v>
+        <v>-0.2547467158802946</v>
       </c>
       <c r="E10">
-        <v>0.4517804260894295</v>
+        <v>0.8269695698063018</v>
       </c>
       <c r="F10">
-        <v>0.07033879279033931</v>
+        <v>0.4455279365072115</v>
       </c>
       <c r="G10">
-        <v>-0.2221234485765521</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.1530656951403201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.1240566179532238</v>
+        <v>0.4299722955860048</v>
       </c>
       <c r="C11">
-        <v>-0.5102039328111003</v>
+        <v>-0.2042882551783194</v>
       </c>
       <c r="D11">
-        <v>0.571512352875496</v>
+        <v>0.8774280305082769</v>
       </c>
       <c r="E11">
-        <v>0.1900707195764057</v>
+        <v>0.4959863972091867</v>
       </c>
       <c r="F11">
-        <v>-0.1023915217904857</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.2035241558422953</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.3327914421219716</v>
+        <v>-0.4160968922281114</v>
       </c>
       <c r="C12">
-        <v>0.7489248435646246</v>
+        <v>0.6656193934584849</v>
       </c>
       <c r="D12">
-        <v>0.3674832102655345</v>
+        <v>0.2841777601593947</v>
       </c>
       <c r="E12">
-        <v>0.07502096889864311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>-0.008284481207496679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.6757787843009738</v>
+        <v>0.5354267536149976</v>
       </c>
       <c r="C13">
-        <v>0.2943371510018836</v>
+        <v>0.1539851203159074</v>
       </c>
       <c r="D13">
-        <v>0.001874909634992209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>-0.1384771210509839</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.2119401747003409</v>
+        <v>-0.322788625881465</v>
       </c>
       <c r="C14">
-        <v>-0.08052206666655046</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>-0.6152508672483563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.06928132317478479</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>-0.2720993704486361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/EXPORT/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -41,6 +41,120 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -443,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,317 +591,1663 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>0.1564060026905638</v>
+      </c>
+      <c r="C2">
+        <v>2.799499304524052</v>
+      </c>
+      <c r="D2">
+        <v>2.957663800734655</v>
+      </c>
+      <c r="E2">
+        <v>10.64506824977929</v>
+      </c>
+      <c r="F2">
+        <v>12.26376372791949</v>
+      </c>
+      <c r="G2">
+        <v>3.403421458489778</v>
+      </c>
+      <c r="H2">
+        <v>-0.792678195651273</v>
+      </c>
+      <c r="I2">
+        <v>0.3089625251196302</v>
+      </c>
+      <c r="J2">
+        <v>-0.02465295233977383</v>
+      </c>
+      <c r="K2">
+        <v>-5.328204942541485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>2.682766678829039</v>
+      </c>
+      <c r="C3">
+        <v>10.37017112787367</v>
+      </c>
+      <c r="D3">
+        <v>11.98886660601387</v>
+      </c>
+      <c r="E3">
+        <v>3.128524336584162</v>
+      </c>
+      <c r="F3">
+        <v>-1.067575317556889</v>
+      </c>
+      <c r="G3">
+        <v>0.03406540321401419</v>
+      </c>
+      <c r="H3">
+        <v>-0.2995500742453898</v>
+      </c>
+      <c r="I3">
+        <v>-5.603102064447102</v>
+      </c>
+      <c r="J3">
+        <v>-0.01815959571163894</v>
+      </c>
+      <c r="K3">
+        <v>0.468698109803269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>11.33082505850536</v>
+      </c>
+      <c r="C4">
+        <v>2.470482789075656</v>
+      </c>
+      <c r="D4">
+        <v>-1.725616865065395</v>
+      </c>
+      <c r="E4">
+        <v>-0.6239761442944918</v>
+      </c>
+      <c r="F4">
+        <v>-0.9575916217538958</v>
+      </c>
+      <c r="G4">
+        <v>-6.261143611955607</v>
+      </c>
+      <c r="H4">
+        <v>-0.6762011432201449</v>
+      </c>
+      <c r="I4">
+        <v>-0.189343437705237</v>
+      </c>
+      <c r="J4">
+        <v>-0.6648575429896981</v>
+      </c>
+      <c r="K4">
+        <v>-1.104643581236506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>-4.015218460455285</v>
+      </c>
+      <c r="C5">
+        <v>-2.913577739684381</v>
+      </c>
+      <c r="D5">
+        <v>-3.247193217143786</v>
+      </c>
+      <c r="E5">
+        <v>-8.550745207345496</v>
+      </c>
+      <c r="F5">
+        <v>-2.965802738610035</v>
+      </c>
+      <c r="G5">
+        <v>-2.478945033095127</v>
+      </c>
+      <c r="H5">
+        <v>-2.954459138379588</v>
+      </c>
+      <c r="I5">
+        <v>-3.394245176626396</v>
+      </c>
+      <c r="J5">
+        <v>-3.169261098646797</v>
+      </c>
+      <c r="K5">
+        <v>0.8484831715025682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-3.472954655349032</v>
+      </c>
+      <c r="C6">
+        <v>-8.776506645550743</v>
+      </c>
+      <c r="D6">
+        <v>-3.191564176815281</v>
+      </c>
+      <c r="E6">
+        <v>-2.704706471300374</v>
+      </c>
+      <c r="F6">
+        <v>-3.180220576584834</v>
+      </c>
+      <c r="G6">
+        <v>-3.620006614831643</v>
+      </c>
+      <c r="H6">
+        <v>-3.395022536852044</v>
+      </c>
+      <c r="I6">
+        <v>0.6227217332973216</v>
+      </c>
+      <c r="J6">
+        <v>-2.590761078176971</v>
+      </c>
+      <c r="K6">
+        <v>-4.140342915286912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>-3.095686366835728</v>
+      </c>
+      <c r="C7">
+        <v>-2.60882866132082</v>
+      </c>
+      <c r="D7">
+        <v>-3.084342766605281</v>
+      </c>
+      <c r="E7">
+        <v>-3.524128804852089</v>
+      </c>
+      <c r="F7">
+        <v>-3.29914472687249</v>
+      </c>
+      <c r="G7">
+        <v>0.718599543276875</v>
+      </c>
+      <c r="H7">
+        <v>-2.494883268197418</v>
+      </c>
+      <c r="I7">
+        <v>-4.044465105307359</v>
+      </c>
+      <c r="J7">
+        <v>-2.215547441765927</v>
+      </c>
+      <c r="K7">
+        <v>1.65028617909021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-2.321059997599229</v>
+      </c>
+      <c r="C8">
+        <v>-2.760846035846036</v>
+      </c>
+      <c r="D8">
+        <v>-2.535861957866437</v>
+      </c>
+      <c r="E8">
+        <v>1.481882312282928</v>
+      </c>
+      <c r="F8">
+        <v>-1.731600499191365</v>
+      </c>
+      <c r="G8">
+        <v>-3.281182336301306</v>
+      </c>
+      <c r="H8">
+        <v>-1.452264672759874</v>
+      </c>
+      <c r="I8">
+        <v>2.413568948096263</v>
+      </c>
+      <c r="J8">
+        <v>1.798147729310906</v>
+      </c>
+      <c r="K8">
+        <v>-2.434424616939544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>-2.202257060604593</v>
+      </c>
+      <c r="C9">
+        <v>1.815487209544772</v>
+      </c>
+      <c r="D9">
+        <v>-1.397995601929521</v>
+      </c>
+      <c r="E9">
+        <v>-2.947577439039462</v>
+      </c>
+      <c r="F9">
+        <v>-1.11865977549803</v>
+      </c>
+      <c r="G9">
+        <v>2.747173845358107</v>
+      </c>
+      <c r="H9">
+        <v>2.13175262657275</v>
+      </c>
+      <c r="I9">
+        <v>-2.1008197196777</v>
+      </c>
+      <c r="J9">
+        <v>0.250693133815533</v>
+      </c>
+      <c r="K9">
+        <v>-2.135236699647036</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.7391844671363219</v>
+      </c>
+      <c r="C10">
+        <v>-0.8103973699736189</v>
+      </c>
+      <c r="D10">
+        <v>1.018520293567813</v>
+      </c>
+      <c r="E10">
+        <v>4.88435391442395</v>
+      </c>
+      <c r="F10">
+        <v>4.268932695638593</v>
+      </c>
+      <c r="G10">
+        <v>0.03636034938814303</v>
+      </c>
+      <c r="H10">
+        <v>2.387873202881376</v>
+      </c>
+      <c r="I10">
+        <v>0.001943369418806906</v>
+      </c>
+      <c r="J10">
+        <v>2.300647285953015</v>
+      </c>
+      <c r="K10">
+        <v>1.311601030613512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.8131937363551547</v>
+      </c>
+      <c r="C11">
+        <v>4.679027357211291</v>
+      </c>
+      <c r="D11">
+        <v>4.063606138425935</v>
+      </c>
+      <c r="E11">
+        <v>-0.1689662078245151</v>
+      </c>
+      <c r="F11">
+        <v>2.182546645668717</v>
+      </c>
+      <c r="G11">
+        <v>-0.2033831877938512</v>
+      </c>
+      <c r="H11">
+        <v>2.095320728740357</v>
+      </c>
+      <c r="I11">
+        <v>1.106274473400854</v>
+      </c>
+      <c r="J11">
+        <v>0.3131889001227057</v>
+      </c>
+      <c r="K11">
+        <v>1.262302570367292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>3.818406988041533</v>
+      </c>
+      <c r="C12">
+        <v>-0.4141653582089169</v>
+      </c>
+      <c r="D12">
+        <v>1.937347495284316</v>
+      </c>
+      <c r="E12">
+        <v>-0.448582338178253</v>
+      </c>
+      <c r="F12">
+        <v>1.850121578355955</v>
+      </c>
+      <c r="G12">
+        <v>0.8610753230164521</v>
+      </c>
+      <c r="H12">
+        <v>0.06798974973830396</v>
+      </c>
+      <c r="I12">
+        <v>1.01710341998289</v>
+      </c>
+      <c r="J12">
+        <v>1.211175936625809</v>
+      </c>
+      <c r="K12">
+        <v>0.219166815406767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>0.7530318508225647</v>
+      </c>
+      <c r="C13">
+        <v>-1.632897982640004</v>
+      </c>
+      <c r="D13">
+        <v>0.6658059338942038</v>
+      </c>
+      <c r="E13">
+        <v>-0.3232403214452989</v>
+      </c>
+      <c r="F13">
+        <v>-1.116325894723447</v>
+      </c>
+      <c r="G13">
+        <v>-0.1672122244788611</v>
+      </c>
+      <c r="H13">
+        <v>0.02686029216405783</v>
+      </c>
+      <c r="I13">
+        <v>-0.965148829054984</v>
+      </c>
+      <c r="J13">
+        <v>0.6131702586774693</v>
+      </c>
+      <c r="K13">
+        <v>1.472779526027621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>0.3983325941771055</v>
+      </c>
+      <c r="C14">
+        <v>-0.5907136611623972</v>
+      </c>
+      <c r="D14">
+        <v>-1.383799234440545</v>
+      </c>
+      <c r="E14">
+        <v>-0.4346855641959594</v>
+      </c>
+      <c r="F14">
+        <v>-0.2406130475530405</v>
+      </c>
+      <c r="G14">
+        <v>-1.232622168772082</v>
+      </c>
+      <c r="H14">
+        <v>0.345696918960371</v>
+      </c>
+      <c r="I14">
+        <v>1.205306186310523</v>
+      </c>
+      <c r="J14">
+        <v>-0.4142623890808467</v>
+      </c>
+      <c r="K14">
+        <v>-0.6814158192428154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>-1.285028886488643</v>
+      </c>
+      <c r="C15">
+        <v>-0.3359152162440566</v>
+      </c>
+      <c r="D15">
+        <v>-0.1418426996011377</v>
+      </c>
+      <c r="E15">
+        <v>-1.13385182082018</v>
+      </c>
+      <c r="F15">
+        <v>0.4444672669122738</v>
+      </c>
+      <c r="G15">
+        <v>1.304076534262425</v>
+      </c>
+      <c r="H15">
+        <v>-0.3154920411289439</v>
+      </c>
+      <c r="I15">
+        <v>-0.5826454712909126</v>
+      </c>
+      <c r="J15">
+        <v>1.063866172219041</v>
+      </c>
+      <c r="K15">
+        <v>-1.021027974426171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.04546151861646464</v>
+      </c>
+      <c r="C16">
+        <v>-1.037470639835506</v>
+      </c>
+      <c r="D16">
+        <v>0.5408484478969469</v>
+      </c>
+      <c r="E16">
+        <v>1.400457715247099</v>
+      </c>
+      <c r="F16">
+        <v>-0.2191108601442708</v>
+      </c>
+      <c r="G16">
+        <v>-0.4862642903062395</v>
+      </c>
+      <c r="H16">
+        <v>1.160247353203714</v>
+      </c>
+      <c r="I16">
+        <v>-0.9246467934414984</v>
+      </c>
+      <c r="J16">
+        <v>-0.5315677218489454</v>
+      </c>
+      <c r="K16">
+        <v>-0.2861652483769055</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>0.4455645403998858</v>
+      </c>
+      <c r="C17">
+        <v>1.305173807750037</v>
+      </c>
+      <c r="D17">
+        <v>-0.3143947676413319</v>
+      </c>
+      <c r="E17">
+        <v>-0.5815481978033006</v>
+      </c>
+      <c r="F17">
+        <v>1.064963445706653</v>
+      </c>
+      <c r="G17">
+        <v>-1.019930700938559</v>
+      </c>
+      <c r="H17">
+        <v>-0.6268516293460065</v>
+      </c>
+      <c r="I17">
+        <v>-0.3814491558739665</v>
+      </c>
+      <c r="J17">
+        <v>-0.9969384340307814</v>
+      </c>
+      <c r="K17">
+        <v>-2.073912912336127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0.09771443821619052</v>
+      </c>
+      <c r="C18">
+        <v>-0.1694389919457782</v>
+      </c>
+      <c r="D18">
+        <v>1.477072651564175</v>
+      </c>
+      <c r="E18">
+        <v>-0.607821495081037</v>
+      </c>
+      <c r="F18">
+        <v>-0.214742423488484</v>
+      </c>
+      <c r="G18">
+        <v>0.03066004998355587</v>
+      </c>
+      <c r="H18">
+        <v>-0.584829228173259</v>
+      </c>
+      <c r="I18">
+        <v>-1.661803706478604</v>
+      </c>
+      <c r="J18">
+        <v>2.11586153557953</v>
+      </c>
+      <c r="K18">
+        <v>0.3936088800030044</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>1.354994107203645</v>
+      </c>
+      <c r="C19">
+        <v>-0.7299000394415673</v>
+      </c>
+      <c r="D19">
+        <v>-0.3368209678490144</v>
+      </c>
+      <c r="E19">
+        <v>-0.09141849437697447</v>
+      </c>
+      <c r="F19">
+        <v>-0.7069077725337893</v>
+      </c>
+      <c r="G19">
+        <v>-1.783882250839135</v>
+      </c>
+      <c r="H19">
+        <v>1.993782991219</v>
+      </c>
+      <c r="I19">
+        <v>0.2715303356424741</v>
+      </c>
+      <c r="J19">
+        <v>1.853096617145825</v>
+      </c>
+      <c r="K19">
+        <v>0.3005053512974243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-0.5547021931887696</v>
+      </c>
+      <c r="C20">
+        <v>-0.3092997197167296</v>
+      </c>
+      <c r="D20">
+        <v>-0.9247889978735445</v>
+      </c>
+      <c r="E20">
+        <v>-2.00176347617889</v>
+      </c>
+      <c r="F20">
+        <v>1.775901765879245</v>
+      </c>
+      <c r="G20">
+        <v>0.05364911030271891</v>
+      </c>
+      <c r="H20">
+        <v>1.635215391806069</v>
+      </c>
+      <c r="I20">
+        <v>0.0826241259576691</v>
+      </c>
+      <c r="J20">
+        <v>-0.2647846081939306</v>
+      </c>
+      <c r="K20">
+        <v>2.081983610009278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-0.8017922233384911</v>
+      </c>
+      <c r="C21">
+        <v>-1.878766701643836</v>
+      </c>
+      <c r="D21">
+        <v>1.898898540414298</v>
+      </c>
+      <c r="E21">
+        <v>0.1766458848377723</v>
+      </c>
+      <c r="F21">
+        <v>1.758212166341123</v>
+      </c>
+      <c r="G21">
+        <v>0.2056209004927225</v>
+      </c>
+      <c r="H21">
+        <v>-0.1417878336588771</v>
+      </c>
+      <c r="I21">
+        <v>2.204980384544332</v>
+      </c>
+      <c r="J21">
+        <v>-0.1837396975864851</v>
+      </c>
+      <c r="K21">
+        <v>1.091748288599238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>1.962099270691321</v>
+      </c>
+      <c r="C22">
+        <v>0.2398466151147958</v>
+      </c>
+      <c r="D22">
+        <v>1.821412896618146</v>
+      </c>
+      <c r="E22">
+        <v>0.268821630769746</v>
+      </c>
+      <c r="F22">
+        <v>-0.07858710338185371</v>
+      </c>
+      <c r="G22">
+        <v>2.268181114821355</v>
+      </c>
+      <c r="H22">
+        <v>-0.1205389673094617</v>
+      </c>
+      <c r="I22">
+        <v>1.154949018876262</v>
+      </c>
+      <c r="J22">
+        <v>4.021412896618147</v>
+      </c>
+      <c r="K22">
+        <v>21.2577167518305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>0.3689370269717385</v>
+      </c>
+      <c r="C23">
+        <v>1.950503308475089</v>
+      </c>
+      <c r="D23">
+        <v>0.3979120426266887</v>
+      </c>
+      <c r="E23">
+        <v>0.05050330847508899</v>
+      </c>
+      <c r="F23">
+        <v>2.397271526678298</v>
+      </c>
+      <c r="G23">
+        <v>0.008551444547481024</v>
+      </c>
+      <c r="H23">
+        <v>1.284039430733205</v>
+      </c>
+      <c r="I23">
+        <v>4.15050330847509</v>
+      </c>
+      <c r="J23">
+        <v>21.38680716368744</v>
+      </c>
+      <c r="K23">
+        <v>-11.37500267577954</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>1.83838808203832</v>
+      </c>
+      <c r="C24">
+        <v>0.2857968161899194</v>
+      </c>
+      <c r="D24">
+        <v>-0.06161191796168031</v>
+      </c>
+      <c r="E24">
+        <v>2.285156300241529</v>
+      </c>
+      <c r="F24">
+        <v>-0.1035637818892883</v>
+      </c>
+      <c r="G24">
+        <v>1.171924204296435</v>
+      </c>
+      <c r="H24">
+        <v>4.03838808203832</v>
+      </c>
+      <c r="I24">
+        <v>21.27469193725067</v>
+      </c>
+      <c r="J24">
+        <v>-11.48711790221631</v>
+      </c>
+      <c r="K24">
+        <v>-1.874800310876973</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>0.5055972626972216</v>
+      </c>
+      <c r="C25">
+        <v>0.1581885285456219</v>
+      </c>
+      <c r="D25">
+        <v>2.504956746748831</v>
+      </c>
+      <c r="E25">
+        <v>0.116236664618014</v>
+      </c>
+      <c r="F25">
+        <v>1.391724650803738</v>
+      </c>
+      <c r="G25">
+        <v>4.258188528545622</v>
+      </c>
+      <c r="H25">
+        <v>21.49449238375797</v>
+      </c>
+      <c r="I25">
+        <v>-11.26731745570901</v>
+      </c>
+      <c r="J25">
+        <v>-1.654999864369671</v>
+      </c>
+      <c r="K25">
+        <v>-0.648720474852255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>-0.08042422515197889</v>
+      </c>
+      <c r="C26">
+        <v>2.26634399305123</v>
+      </c>
+      <c r="D26">
+        <v>-0.1223760890795869</v>
+      </c>
+      <c r="E26">
+        <v>1.153111897106137</v>
+      </c>
+      <c r="F26">
+        <v>4.019575774848021</v>
+      </c>
+      <c r="G26">
+        <v>21.25587963006037</v>
+      </c>
+      <c r="H26">
+        <v>-11.50593020940661</v>
+      </c>
+      <c r="I26">
+        <v>-1.893612618067272</v>
+      </c>
+      <c r="J26">
+        <v>-0.8873332285498559</v>
+      </c>
+      <c r="K26">
+        <v>-0.167709421562712</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>2.232403282398179</v>
+      </c>
+      <c r="C27">
+        <v>-0.1563167997326377</v>
+      </c>
+      <c r="D27">
+        <v>1.119171186453086</v>
+      </c>
+      <c r="E27">
+        <v>3.98563506419497</v>
+      </c>
+      <c r="F27">
+        <v>21.22193891940732</v>
+      </c>
+      <c r="G27">
+        <v>-11.53987092005966</v>
+      </c>
+      <c r="H27">
+        <v>-1.927553328720323</v>
+      </c>
+      <c r="I27">
+        <v>-0.9212739392029067</v>
+      </c>
+      <c r="J27">
+        <v>-0.2016501322157628</v>
+      </c>
+      <c r="K27">
+        <v>-0.5651442244717387</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>-0.03472137752059901</v>
+      </c>
+      <c r="C28">
+        <v>1.240766608665125</v>
+      </c>
+      <c r="D28">
+        <v>4.107230486407009</v>
+      </c>
+      <c r="E28">
+        <v>21.34353434161936</v>
+      </c>
+      <c r="F28">
+        <v>-11.41827549784762</v>
+      </c>
+      <c r="G28">
+        <v>-1.805957906508284</v>
+      </c>
+      <c r="H28">
+        <v>-0.799678516990868</v>
+      </c>
+      <c r="I28">
+        <v>-0.08005471000372411</v>
+      </c>
+      <c r="J28">
+        <v>-0.4435488022597001</v>
+      </c>
+      <c r="K28">
+        <v>0.638598967882585</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>0.9819442899547923</v>
+      </c>
+      <c r="C29">
+        <v>3.848408167696677</v>
+      </c>
+      <c r="D29">
+        <v>21.08471202290903</v>
+      </c>
+      <c r="E29">
+        <v>-11.67709781655795</v>
+      </c>
+      <c r="F29">
+        <v>-2.064780225218616</v>
+      </c>
+      <c r="G29">
+        <v>-1.0585008357012</v>
+      </c>
+      <c r="H29">
+        <v>-0.3388770287140563</v>
+      </c>
+      <c r="I29">
+        <v>-0.7023711209700323</v>
+      </c>
+      <c r="J29">
+        <v>0.3797766491722527</v>
+      </c>
+      <c r="K29">
+        <v>2.770088583965101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>3.780336538995424</v>
+      </c>
+      <c r="C30">
+        <v>21.01664039420777</v>
+      </c>
+      <c r="D30">
+        <v>-11.74516944525921</v>
+      </c>
+      <c r="E30">
+        <v>-2.13285185391987</v>
+      </c>
+      <c r="F30">
+        <v>-1.126572464402453</v>
+      </c>
+      <c r="G30">
+        <v>-0.4069486574153094</v>
+      </c>
+      <c r="H30">
+        <v>-0.7704427496712853</v>
+      </c>
+      <c r="I30">
+        <v>0.3117050204709997</v>
+      </c>
+      <c r="J30">
+        <v>2.702016955263848</v>
+      </c>
+      <c r="K30">
+        <v>-0.4378290950282733</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>20.86265968035404</v>
+      </c>
+      <c r="C31">
+        <v>-11.89915015911294</v>
+      </c>
+      <c r="D31">
+        <v>-2.286832567773602</v>
+      </c>
+      <c r="E31">
+        <v>-1.280553178256186</v>
+      </c>
+      <c r="F31">
+        <v>-0.5609293712690421</v>
+      </c>
+      <c r="G31">
+        <v>-0.924423463525018</v>
+      </c>
+      <c r="H31">
+        <v>0.157724306617267</v>
+      </c>
+      <c r="I31">
+        <v>2.548036241410115</v>
+      </c>
+      <c r="J31">
+        <v>-0.591809808882006</v>
+      </c>
+      <c r="K31">
+        <v>0.3973973064256725</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>-12.38226826385405</v>
+      </c>
+      <c r="C32">
+        <v>-2.769950672514712</v>
+      </c>
+      <c r="D32">
+        <v>-1.763671282997296</v>
+      </c>
+      <c r="E32">
+        <v>-1.044047476010152</v>
+      </c>
+      <c r="F32">
+        <v>-1.407541568266128</v>
+      </c>
+      <c r="G32">
+        <v>-0.3253937981238428</v>
+      </c>
+      <c r="H32">
+        <v>2.064918136669005</v>
+      </c>
+      <c r="I32">
+        <v>-1.074927913623116</v>
+      </c>
+      <c r="J32">
+        <v>-0.08572079831543729</v>
+      </c>
+      <c r="K32">
+        <v>0.469214766318556</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>-3.80651481581962</v>
+      </c>
+      <c r="C33">
+        <v>-2.800235426302204</v>
+      </c>
+      <c r="D33">
+        <v>-2.08061161931506</v>
+      </c>
+      <c r="E33">
+        <v>-2.444105711571036</v>
+      </c>
+      <c r="F33">
+        <v>-1.361957941428751</v>
+      </c>
+      <c r="G33">
+        <v>1.028353993364097</v>
+      </c>
+      <c r="H33">
+        <v>-2.111492056928024</v>
+      </c>
+      <c r="I33">
+        <v>-1.122284941620346</v>
+      </c>
+      <c r="J33">
+        <v>-0.5673493769863525</v>
+      </c>
+      <c r="K33">
+        <v>-0.3553382801312308</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>-2.0250335840715</v>
+      </c>
+      <c r="C34">
+        <v>-1.305409777084356</v>
+      </c>
+      <c r="D34">
+        <v>-1.668903869340332</v>
+      </c>
+      <c r="E34">
+        <v>-0.5867560991980473</v>
+      </c>
+      <c r="F34">
+        <v>1.803555835594801</v>
+      </c>
+      <c r="G34">
+        <v>-1.33629021469732</v>
+      </c>
+      <c r="H34">
+        <v>-0.3470830993896418</v>
+      </c>
+      <c r="I34">
+        <v>0.2078524652443515</v>
+      </c>
+      <c r="J34">
+        <v>0.4198635620994732</v>
+      </c>
+      <c r="K34">
+        <v>-0.1681879348368288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>-0.9091138881336978</v>
+      </c>
+      <c r="C35">
+        <v>-1.272607980389674</v>
+      </c>
+      <c r="D35">
+        <v>-0.1904602102473887</v>
+      </c>
+      <c r="E35">
+        <v>2.199851724545459</v>
+      </c>
+      <c r="F35">
+        <v>-0.9399943257466616</v>
+      </c>
+      <c r="G35">
+        <v>0.04921278956101682</v>
+      </c>
+      <c r="H35">
+        <v>0.6041483541950101</v>
+      </c>
+      <c r="I35">
+        <v>0.8161594510501318</v>
+      </c>
+      <c r="J35">
+        <v>0.2281079541138298</v>
+      </c>
+      <c r="K35">
+        <v>-0.1880521510029722</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>-1.194515630495638</v>
+      </c>
+      <c r="C36">
+        <v>-0.1123678603533531</v>
+      </c>
+      <c r="D36">
+        <v>2.277944074439495</v>
+      </c>
+      <c r="E36">
+        <v>-0.8619019758526261</v>
+      </c>
+      <c r="F36">
+        <v>0.1273051394550524</v>
+      </c>
+      <c r="G36">
+        <v>0.6822407040890457</v>
+      </c>
+      <c r="H36">
+        <v>0.8942518009441673</v>
+      </c>
+      <c r="I36">
+        <v>0.3062003040078654</v>
+      </c>
+      <c r="J36">
+        <v>-0.1099598011089366</v>
+      </c>
+      <c r="K36">
+        <v>1.280183253935283</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>-0.2334522017599235</v>
+      </c>
+      <c r="C37">
+        <v>2.156859733032924</v>
+      </c>
+      <c r="D37">
+        <v>-0.9829863172591964</v>
+      </c>
+      <c r="E37">
+        <v>0.006220798048482024</v>
+      </c>
+      <c r="F37">
+        <v>0.5611563626824754</v>
+      </c>
+      <c r="G37">
+        <v>0.773167459537597</v>
+      </c>
+      <c r="H37">
+        <v>0.185115962601295</v>
+      </c>
+      <c r="I37">
+        <v>-0.231044142515507</v>
+      </c>
+      <c r="J37">
+        <v>1.159098912528713</v>
+      </c>
+      <c r="K37">
+        <v>0.3899647828479337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>2.086693940184074</v>
+      </c>
+      <c r="C38">
+        <v>-1.053152110108047</v>
+      </c>
+      <c r="D38">
+        <v>-0.06394499480036871</v>
+      </c>
+      <c r="E38">
+        <v>0.4909905698336246</v>
+      </c>
+      <c r="F38">
+        <v>0.7030016666887462</v>
+      </c>
+      <c r="G38">
+        <v>0.1149501697524443</v>
+      </c>
+      <c r="H38">
+        <v>-0.3012099353643577</v>
+      </c>
+      <c r="I38">
+        <v>1.088933119679862</v>
+      </c>
+      <c r="J38">
+        <v>0.319798989999083</v>
+      </c>
+      <c r="K38">
+        <v>-1.500937262469438</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
         <v>-0.740857461610962</v>
       </c>
-      <c r="C2">
+      <c r="C39">
         <v>0.2483496536967165</v>
       </c>
-      <c r="D2">
+      <c r="D39">
         <v>0.8032852183307098</v>
       </c>
-      <c r="E2">
+      <c r="E39">
         <v>1.015296315185831</v>
       </c>
-      <c r="F2">
+      <c r="F39">
         <v>0.4272448182495295</v>
       </c>
-      <c r="G2">
+      <c r="G39">
         <v>0.01108471313272752</v>
       </c>
-      <c r="H2">
+      <c r="H39">
         <v>1.401227768176947</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
+      <c r="I39">
+        <v>0.6320936384961682</v>
+      </c>
+      <c r="J39">
+        <v>-1.188642613972353</v>
+      </c>
+      <c r="K39">
+        <v>0.6248636817898712</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
         <v>0.2917404373296907</v>
       </c>
-      <c r="C3">
+      <c r="C40">
         <v>0.8466760019636841</v>
       </c>
-      <c r="D3">
+      <c r="D40">
         <v>1.058687098818806</v>
       </c>
-      <c r="E3">
+      <c r="E40">
         <v>0.4706356018825037</v>
       </c>
-      <c r="F3">
+      <c r="F40">
         <v>0.05447549676570174</v>
       </c>
-      <c r="G3">
+      <c r="G40">
         <v>1.444618551809921</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+      <c r="H40">
+        <v>0.6754844221291425</v>
+      </c>
+      <c r="I40">
+        <v>-1.145251830339379</v>
+      </c>
+      <c r="J40">
+        <v>0.6682544654228454</v>
+      </c>
+      <c r="K40">
+        <v>0.03399391465852125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
         <v>1.247683574918372</v>
       </c>
-      <c r="C4">
+      <c r="C41">
         <v>1.459694671773494</v>
       </c>
-      <c r="D4">
+      <c r="D41">
         <v>0.8716431748371921</v>
       </c>
-      <c r="E4">
+      <c r="E41">
         <v>0.4554830697203902</v>
       </c>
-      <c r="F4">
+      <c r="F41">
         <v>1.84562612476461</v>
       </c>
-      <c r="G4">
+      <c r="G41">
         <v>1.076491995083831</v>
       </c>
-      <c r="H4">
+      <c r="H41">
         <v>-0.7442442573846902</v>
       </c>
-      <c r="I4">
+      <c r="I41">
         <v>1.069262038377534</v>
       </c>
-      <c r="J4">
+      <c r="J41">
         <v>0.4350014876132097</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
+      <c r="K41">
+        <v>1.516717773299806</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>3.694617372890321</v>
       </c>
-      <c r="C5">
+      <c r="C42">
         <v>3.106565875954019</v>
       </c>
-      <c r="D5">
+      <c r="D42">
         <v>2.690405770837217</v>
       </c>
-      <c r="E5">
+      <c r="E42">
         <v>4.080548825881436</v>
       </c>
-      <c r="F5">
+      <c r="F42">
         <v>3.311414696200658</v>
       </c>
-      <c r="G5">
+      <c r="G42">
         <v>1.490678443732137</v>
       </c>
-      <c r="H5">
+      <c r="H42">
         <v>3.304184739494361</v>
       </c>
-      <c r="I5">
+      <c r="I42">
         <v>2.669924188730037</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
+      <c r="J42">
+        <v>3.751640474416633</v>
+      </c>
+      <c r="K42">
+        <v>3.370198841117543</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
         <v>1.216530487278416</v>
       </c>
-      <c r="C6">
+      <c r="C43">
         <v>0.8003703821616144</v>
       </c>
-      <c r="D6">
+      <c r="D43">
         <v>2.190513437205834</v>
       </c>
-      <c r="E6">
+      <c r="E43">
         <v>1.421379307525055</v>
       </c>
-      <c r="F6">
+      <c r="F43">
         <v>-0.399356944943466</v>
       </c>
-      <c r="G6">
+      <c r="G43">
         <v>1.414149350818758</v>
       </c>
-      <c r="H6">
+      <c r="H43">
         <v>0.779888800054434</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
+      <c r="I43">
+        <v>1.86160508574103</v>
+      </c>
+      <c r="J43">
+        <v>1.48016345244194</v>
+      </c>
+      <c r="K43">
+        <v>1.187701211075049</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>0.4476790584865185</v>
       </c>
-      <c r="C7">
+      <c r="C44">
         <v>1.837822113530738</v>
       </c>
-      <c r="D7">
+      <c r="D44">
         <v>1.068687983849959</v>
       </c>
-      <c r="E7">
+      <c r="E44">
         <v>-0.7520482686185619</v>
       </c>
-      <c r="F7">
+      <c r="F44">
         <v>1.061458027143662</v>
       </c>
-      <c r="G7">
+      <c r="G44">
         <v>0.427197476379338</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
+      <c r="H44">
+        <v>1.508913762065934</v>
+      </c>
+      <c r="I44">
+        <v>1.127472128766844</v>
+      </c>
+      <c r="J44">
+        <v>0.8350098873999527</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
         <v>1.594404170131267</v>
       </c>
-      <c r="C8">
+      <c r="C45">
         <v>0.8252700404504878</v>
       </c>
-      <c r="D8">
+      <c r="D45">
         <v>-0.9954662120180333</v>
       </c>
-      <c r="E8">
+      <c r="E45">
         <v>0.8180400837441908</v>
       </c>
-      <c r="F8">
+      <c r="F45">
         <v>0.1837795329798666</v>
       </c>
-      <c r="G8">
+      <c r="G45">
         <v>1.265495818666463</v>
       </c>
-      <c r="H8">
+      <c r="H45">
         <v>0.8840541853673727</v>
       </c>
-      <c r="I8">
+      <c r="I45">
         <v>0.5915919440004813</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
         <v>0.4048306212132332</v>
       </c>
-      <c r="C9">
+      <c r="C46">
         <v>-1.415905631255288</v>
       </c>
-      <c r="D9">
+      <c r="D46">
         <v>0.3976006645069362</v>
       </c>
-      <c r="E9">
+      <c r="E46">
         <v>-0.236659886257388</v>
       </c>
-      <c r="F9">
+      <c r="F46">
         <v>0.8450563994292083</v>
       </c>
-      <c r="G9">
+      <c r="G46">
         <v>0.4636147661301181</v>
       </c>
-      <c r="H9">
+      <c r="H46">
         <v>0.1711525247632267</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
         <v>-1.433992460878194</v>
       </c>
-      <c r="C10">
+      <c r="C47">
         <v>0.3795138348840296</v>
       </c>
-      <c r="D10">
+      <c r="D47">
         <v>-0.2547467158802946</v>
       </c>
-      <c r="E10">
+      <c r="E47">
         <v>0.8269695698063018</v>
       </c>
-      <c r="F10">
+      <c r="F47">
         <v>0.4455279365072115</v>
       </c>
-      <c r="G10">
+      <c r="G47">
         <v>0.1530656951403201</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
         <v>0.4299722955860048</v>
       </c>
-      <c r="C11">
+      <c r="C48">
         <v>-0.2042882551783194</v>
       </c>
-      <c r="D11">
+      <c r="D48">
         <v>0.8774280305082769</v>
       </c>
-      <c r="E11">
+      <c r="E48">
         <v>0.4959863972091867</v>
       </c>
-      <c r="F11">
+      <c r="F48">
         <v>0.2035241558422953</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
         <v>-0.4160968922281114</v>
       </c>
-      <c r="C12">
+      <c r="C49">
         <v>0.6656193934584849</v>
       </c>
-      <c r="D12">
+      <c r="D49">
         <v>0.2841777601593947</v>
       </c>
-      <c r="E12">
+      <c r="E49">
         <v>-0.008284481207496679</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
         <v>0.5354267536149976</v>
       </c>
-      <c r="C13">
+      <c r="C50">
         <v>0.1539851203159074</v>
       </c>
-      <c r="D13">
+      <c r="D50">
         <v>-0.1384771210509839</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
         <v>-0.322788625881465</v>
       </c>
-      <c r="C14">
+      <c r="C51">
         <v>-0.6152508672483563</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
         <v>-0.2720993704486361</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/EXPORT/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -600,34 +600,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>1.32142266571545</v>
+      </c>
+      <c r="C2">
         <v>0.1564060026905638</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2.799499304524052</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2.957663800734655</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>10.64506824977929</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>12.26376372791949</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>3.403421458489778</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-0.792678195651273</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.3089625251196302</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-0.02465295233977383</v>
-      </c>
-      <c r="K2">
-        <v>-5.328204942541485</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -635,34 +635,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>2.524602182618436</v>
+      </c>
+      <c r="C3">
         <v>2.682766678829039</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>10.37017112787367</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>11.98886660601387</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>3.128524336584162</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-1.067575317556889</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.03406540321401419</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.2995500742453898</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-5.603102064447102</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.01815959571163894</v>
-      </c>
-      <c r="K3">
-        <v>0.468698109803269</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,34 +670,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>9.712129580365168</v>
+      </c>
+      <c r="C4">
         <v>11.33082505850536</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2.470482789075656</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-1.725616865065395</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-0.6239761442944918</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-0.9575916217538958</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-6.261143611955607</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-0.6762011432201449</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-0.189343437705237</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-0.6648575429896981</v>
-      </c>
-      <c r="K4">
-        <v>-1.104643581236506</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -705,34 +705,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>0.1808811936857666</v>
+      </c>
+      <c r="C5">
         <v>-4.015218460455285</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-2.913577739684381</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-3.247193217143786</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-8.550745207345496</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-2.965802738610035</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-2.478945033095127</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-2.954459138379588</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-3.394245176626396</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-3.169261098646797</v>
-      </c>
-      <c r="K5">
-        <v>0.8484831715025682</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -740,34 +740,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>-3.139339177889628</v>
+      </c>
+      <c r="C6">
         <v>-3.472954655349032</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-8.776506645550743</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-3.191564176815281</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-2.704706471300374</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-3.180220576584834</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-3.620006614831643</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-3.395022536852044</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.6227217332973216</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-2.590761078176971</v>
-      </c>
-      <c r="K6">
-        <v>-4.140342915286912</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -775,34 +775,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-8.68062883557119</v>
+      </c>
+      <c r="C7">
         <v>-3.095686366835728</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-2.60882866132082</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-3.084342766605281</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-3.524128804852089</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-3.29914472687249</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.718599543276875</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-2.494883268197418</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-4.044465105307359</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-2.215547441765927</v>
-      </c>
-      <c r="K7">
-        <v>1.65028617909021</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -810,34 +810,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>-1.845545892314767</v>
+      </c>
+      <c r="C8">
         <v>-2.321059997599229</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-2.760846035846036</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-2.535861957866437</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1.481882312282928</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-1.731600499191365</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-3.281182336301306</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-1.452264672759874</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>2.413568948096263</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1.798147729310906</v>
-      </c>
-      <c r="K8">
-        <v>-2.434424616939544</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -845,34 +845,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>-2.427241138584192</v>
+      </c>
+      <c r="C9">
         <v>-2.202257060604593</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1.815487209544772</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-1.397995601929521</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-2.947577439039462</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-1.11865977549803</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2.747173845358107</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2.13175262657275</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-2.1008197196777</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.250693133815533</v>
-      </c>
-      <c r="K9">
-        <v>-2.135236699647036</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -880,34 +880,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>3.952667278610615</v>
+      </c>
+      <c r="C10">
         <v>0.7391844671363219</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.8103973699736189</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1.018520293567813</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>4.88435391442395</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>4.268932695638593</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.03636034938814303</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2.387873202881376</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.001943369418806906</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>2.300647285953015</v>
-      </c>
-      <c r="K10">
-        <v>1.311601030613512</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -915,34 +915,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>-1.015723927186277</v>
+      </c>
+      <c r="C11">
         <v>0.8131937363551547</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>4.679027357211291</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>4.063606138425935</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-0.1689662078245151</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>2.182546645668717</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-0.2033831877938512</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>2.095320728740357</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1.106274473400854</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.3131889001227057</v>
-      </c>
-      <c r="K11">
-        <v>1.262302570367292</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -950,34 +950,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>4.43382820682689</v>
+      </c>
+      <c r="C12">
         <v>3.818406988041533</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.4141653582089169</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1.937347495284316</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-0.448582338178253</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1.850121578355955</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.8610753230164521</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.06798974973830396</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1.01710341998289</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1.211175936625809</v>
-      </c>
-      <c r="K12">
-        <v>0.219166815406767</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -985,34 +985,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>-1.598481002670668</v>
+      </c>
+      <c r="C13">
         <v>0.7530318508225647</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-1.632897982640004</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.6658059338942038</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-0.3232403214452989</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-1.116325894723447</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-0.1672122244788611</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.02686029216405783</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-0.965148829054984</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.6131702586774693</v>
-      </c>
-      <c r="K13">
-        <v>1.472779526027621</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1020,34 +1020,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-1.900371322357102</v>
+      </c>
+      <c r="C14">
         <v>0.3983325941771055</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.5907136611623972</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-1.383799234440545</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.4346855641959594</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.2406130475530405</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-1.232622168772082</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.345696918960371</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1.205306186310523</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-0.4142623890808467</v>
-      </c>
-      <c r="K14">
-        <v>-0.6814158192428154</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1055,34 +1055,34 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>-0.4919433132104944</v>
+      </c>
+      <c r="C15">
         <v>-1.285028886488643</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-0.3359152162440566</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-0.1418426996011377</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-1.13385182082018</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.4444672669122738</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1.304076534262425</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-0.3154920411289439</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-0.5826454712909126</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>1.063866172219041</v>
-      </c>
-      <c r="K15">
-        <v>-1.021027974426171</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1090,34 +1090,34 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-0.2395340352593835</v>
+      </c>
+      <c r="C16">
         <v>-0.04546151861646464</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-1.037470639835506</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.5408484478969469</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1.400457715247099</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-0.2191108601442708</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-0.4862642903062395</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1.160247353203714</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-0.9246467934414984</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-0.5315677218489454</v>
-      </c>
-      <c r="K16">
-        <v>-0.2861652483769055</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1125,34 +1125,34 @@
         <v>25</v>
       </c>
       <c r="B17">
+        <v>-1.132754547332568</v>
+      </c>
+      <c r="C17">
         <v>0.4455645403998858</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1.305173807750037</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-0.3143947676413319</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-0.5815481978033006</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1.064963445706653</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-1.019930700938559</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-0.6268516293460065</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-0.3814491558739665</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-0.9969384340307814</v>
-      </c>
-      <c r="K17">
-        <v>-2.073912912336127</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1160,34 +1160,34 @@
         <v>26</v>
       </c>
       <c r="B18">
+        <v>1.71728301360756</v>
+      </c>
+      <c r="C18">
         <v>0.09771443821619052</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-0.1694389919457782</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1.477072651564175</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-0.607821495081037</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-0.214742423488484</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.03066004998355587</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-0.584829228173259</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-1.661803706478604</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>2.11586153557953</v>
-      </c>
-      <c r="K18">
-        <v>0.3936088800030044</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1195,34 +1195,34 @@
         <v>27</v>
       </c>
       <c r="B19">
+        <v>-0.2915175363063085</v>
+      </c>
+      <c r="C19">
         <v>1.354994107203645</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-0.7299000394415673</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-0.3368209678490144</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-0.09141849437697447</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-0.7069077725337893</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-1.783882250839135</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1.993782991219</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.2715303356424741</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1.853096617145825</v>
-      </c>
-      <c r="K19">
-        <v>0.3005053512974243</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1230,34 +1230,34 @@
         <v>28</v>
       </c>
       <c r="B20">
+        <v>-0.9477812647813225</v>
+      </c>
+      <c r="C20">
         <v>-0.5547021931887696</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-0.3092997197167296</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-0.9247889978735445</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-2.00176347617889</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1.775901765879245</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.05364911030271891</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1.635215391806069</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.0826241259576691</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-0.2647846081939306</v>
-      </c>
-      <c r="K20">
-        <v>2.081983610009278</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1265,34 +1265,34 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>-0.1863029451816762</v>
+      </c>
+      <c r="C21">
         <v>-0.8017922233384911</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-1.878766701643836</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1.898898540414298</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.1766458848377723</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1.758212166341123</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.2056209004927225</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-0.1417878336588771</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>2.204980384544332</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-0.1837396975864851</v>
-      </c>
-      <c r="K21">
-        <v>1.091748288599238</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1300,34 +1300,34 @@
         <v>30</v>
       </c>
       <c r="B22">
+        <v>-1.815565971366813</v>
+      </c>
+      <c r="C22">
         <v>1.962099270691321</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.2398466151147958</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>1.821412896618146</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.268821630769746</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-0.07858710338185371</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>2.268181114821355</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-0.1205389673094617</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>1.154949018876262</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>4.021412896618147</v>
-      </c>
-      <c r="K22">
-        <v>21.2577167518305</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1335,34 +1335,34 @@
         <v>31</v>
       </c>
       <c r="B23">
+        <v>2.091189682548264</v>
+      </c>
+      <c r="C23">
         <v>0.3689370269717385</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>1.950503308475089</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.3979120426266887</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.05050330847508899</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>2.397271526678298</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.008551444547481024</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>1.284039430733205</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>4.15050330847509</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>21.38680716368744</v>
-      </c>
-      <c r="K23">
-        <v>-11.37500267577954</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1370,34 +1370,34 @@
         <v>32</v>
       </c>
       <c r="B24">
+        <v>0.2568218005349692</v>
+      </c>
+      <c r="C24">
         <v>1.83838808203832</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.2857968161899194</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-0.06161191796168031</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>2.285156300241529</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-0.1035637818892883</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1.171924204296435</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>4.03838808203832</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>21.27469193725067</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-11.48711790221631</v>
-      </c>
-      <c r="K24">
-        <v>-1.874800310876973</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1405,34 +1405,34 @@
         <v>33</v>
       </c>
       <c r="B25">
+        <v>2.058188528545622</v>
+      </c>
+      <c r="C25">
         <v>0.5055972626972216</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.1581885285456219</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>2.504956746748831</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.116236664618014</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1.391724650803738</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>4.258188528545622</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>21.49449238375797</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-11.26731745570901</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-1.654999864369671</v>
-      </c>
-      <c r="K25">
-        <v>-0.648720474852255</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1440,34 +1440,34 @@
         <v>34</v>
       </c>
       <c r="B26">
+        <v>0.2669845089996208</v>
+      </c>
+      <c r="C26">
         <v>-0.08042422515197889</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>2.26634399305123</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>-0.1223760890795869</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1.153111897106137</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>4.019575774848021</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>21.25587963006037</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-11.50593020940661</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-1.893612618067272</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-0.8873332285498559</v>
-      </c>
-      <c r="K26">
-        <v>-0.167709421562712</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1475,34 +1475,34 @@
         <v>35</v>
       </c>
       <c r="B27">
+        <v>-0.1143649358050297</v>
+      </c>
+      <c r="C27">
         <v>2.232403282398179</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-0.1563167997326377</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>1.119171186453086</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>3.98563506419497</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>21.22193891940732</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-11.53987092005966</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-1.927553328720323</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-0.9212739392029067</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-0.2016501322157628</v>
-      </c>
-      <c r="K27">
-        <v>-0.5651442244717387</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1510,34 +1510,34 @@
         <v>36</v>
       </c>
       <c r="B28">
+        <v>2.353998704610218</v>
+      </c>
+      <c r="C28">
         <v>-0.03472137752059901</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1.240766608665125</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>4.107230486407009</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>21.34353434161936</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-11.41827549784762</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-1.805957906508284</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-0.799678516990868</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-0.08005471000372411</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-0.4435488022597001</v>
-      </c>
-      <c r="K28">
-        <v>0.638598967882585</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1545,34 +1545,34 @@
         <v>37</v>
       </c>
       <c r="B29">
+        <v>-0.2935436962309312</v>
+      </c>
+      <c r="C29">
         <v>0.9819442899547923</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>3.848408167696677</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>21.08471202290903</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-11.67709781655795</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-2.064780225218616</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-1.0585008357012</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-0.3388770287140563</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-0.7023711209700323</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>0.3797766491722527</v>
-      </c>
-      <c r="K29">
-        <v>2.770088583965101</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1580,34 +1580,34 @@
         <v>38</v>
       </c>
       <c r="B30">
+        <v>0.9138726612535393</v>
+      </c>
+      <c r="C30">
         <v>3.780336538995424</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>21.01664039420777</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-11.74516944525921</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-2.13285185391987</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-1.126572464402453</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-0.4069486574153094</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-0.7704427496712853</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.3117050204709997</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>2.702016955263848</v>
-      </c>
-      <c r="K30">
-        <v>-0.4378290950282733</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1615,34 +1615,34 @@
         <v>39</v>
       </c>
       <c r="B31">
+        <v>3.626355825141691</v>
+      </c>
+      <c r="C31">
         <v>20.86265968035404</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-11.89915015911294</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-2.286832567773602</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-1.280553178256186</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-0.5609293712690421</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-0.924423463525018</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.157724306617267</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>2.548036241410115</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-0.591809808882006</v>
-      </c>
-      <c r="K31">
-        <v>0.3973973064256725</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1650,34 +1650,34 @@
         <v>40</v>
       </c>
       <c r="B32">
+        <v>20.37954157561293</v>
+      </c>
+      <c r="C32">
         <v>-12.38226826385405</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-2.769950672514712</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-1.763671282997296</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-1.044047476010152</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-1.407541568266128</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-0.3253937981238428</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>2.064918136669005</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-1.074927913623116</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-0.08572079831543729</v>
-      </c>
-      <c r="K32">
-        <v>0.469214766318556</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
+        <v>-13.41883240715896</v>
+      </c>
+      <c r="C33">
         <v>-3.80651481581962</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>-2.800235426302204</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>-2.08061161931506</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>-2.444105711571036</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-1.361957941428751</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>1.028353993364097</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-2.111492056928024</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-1.122284941620346</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-0.5673493769863525</v>
-      </c>
-      <c r="K33">
-        <v>-0.3553382801312308</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
+        <v>-3.031312973588916</v>
+      </c>
+      <c r="C34">
         <v>-2.0250335840715</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>-1.305409777084356</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-1.668903869340332</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>-0.5867560991980473</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>1.803555835594801</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-1.33629021469732</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>-0.3470830993896418</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.2078524652443515</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.4198635620994732</v>
-      </c>
-      <c r="K34">
-        <v>-0.1681879348368288</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,34 +1755,31 @@
         <v>43</v>
       </c>
       <c r="B35">
+        <v>-1.628737695120842</v>
+      </c>
+      <c r="C35">
         <v>-0.9091138881336978</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>-1.272607980389674</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>-0.1904602102473887</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>2.199851724545459</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>-0.9399943257466616</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>0.04921278956101682</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.6041483541950101</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.8161594510501318</v>
-      </c>
-      <c r="J35">
-        <v>0.2281079541138298</v>
-      </c>
-      <c r="K35">
-        <v>-0.1880521510029722</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1790,34 +1787,28 @@
         <v>44</v>
       </c>
       <c r="B36">
+        <v>-0.8310215382396622</v>
+      </c>
+      <c r="C36">
         <v>-1.194515630495638</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>-0.1123678603533531</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>2.277944074439495</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>-0.8619019758526261</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.1273051394550524</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.6822407040890457</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>0.8942518009441673</v>
-      </c>
-      <c r="I36">
-        <v>0.3062003040078654</v>
-      </c>
-      <c r="J36">
-        <v>-0.1099598011089366</v>
-      </c>
-      <c r="K36">
-        <v>1.280183253935283</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1825,34 +1816,25 @@
         <v>45</v>
       </c>
       <c r="B37">
+        <v>-1.315599971902208</v>
+      </c>
+      <c r="C37">
         <v>-0.2334522017599235</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>2.156859733032924</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>-0.9829863172591964</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0.006220798048482024</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.5611563626824754</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.773167459537597</v>
-      </c>
-      <c r="H37">
-        <v>0.185115962601295</v>
-      </c>
-      <c r="I37">
-        <v>-0.231044142515507</v>
-      </c>
-      <c r="J37">
-        <v>1.159098912528713</v>
-      </c>
-      <c r="K37">
-        <v>0.3899647828479337</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1860,34 +1842,22 @@
         <v>46</v>
       </c>
       <c r="B38">
+        <v>-0.3036179946087742</v>
+      </c>
+      <c r="C38">
         <v>2.086693940184074</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>-1.053152110108047</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>-0.06394499480036871</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.4909905698336246</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.7030016666887462</v>
-      </c>
-      <c r="G38">
-        <v>0.1149501697524443</v>
-      </c>
-      <c r="H38">
-        <v>-0.3012099353643577</v>
-      </c>
-      <c r="I38">
-        <v>1.088933119679862</v>
-      </c>
-      <c r="J38">
-        <v>0.319798989999083</v>
-      </c>
-      <c r="K38">
-        <v>-1.500937262469438</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1895,34 +1865,19 @@
         <v>47</v>
       </c>
       <c r="B39">
+        <v>2.398988588681159</v>
+      </c>
+      <c r="C39">
         <v>-0.740857461610962</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.2483496536967165</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.8032852183307098</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>1.015296315185831</v>
-      </c>
-      <c r="F39">
-        <v>0.4272448182495295</v>
-      </c>
-      <c r="G39">
-        <v>0.01108471313272752</v>
-      </c>
-      <c r="H39">
-        <v>1.401227768176947</v>
-      </c>
-      <c r="I39">
-        <v>0.6320936384961682</v>
-      </c>
-      <c r="J39">
-        <v>-1.188642613972353</v>
-      </c>
-      <c r="K39">
-        <v>0.6248636817898712</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1930,34 +1885,16 @@
         <v>48</v>
       </c>
       <c r="B40">
+        <v>-0.6974666779779877</v>
+      </c>
+      <c r="C40">
         <v>0.2917404373296907</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>0.8466760019636841</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>1.058687098818806</v>
-      </c>
-      <c r="E40">
-        <v>0.4706356018825037</v>
-      </c>
-      <c r="F40">
-        <v>0.05447549676570174</v>
-      </c>
-      <c r="G40">
-        <v>1.444618551809921</v>
-      </c>
-      <c r="H40">
-        <v>0.6754844221291425</v>
-      </c>
-      <c r="I40">
-        <v>-1.145251830339379</v>
-      </c>
-      <c r="J40">
-        <v>0.6682544654228454</v>
-      </c>
-      <c r="K40">
-        <v>0.03399391465852125</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1965,34 +1902,13 @@
         <v>49</v>
       </c>
       <c r="B41">
+        <v>0.6927480102843792</v>
+      </c>
+      <c r="C41">
         <v>1.247683574918372</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>1.459694671773494</v>
-      </c>
-      <c r="D41">
-        <v>0.8716431748371921</v>
-      </c>
-      <c r="E41">
-        <v>0.4554830697203902</v>
-      </c>
-      <c r="F41">
-        <v>1.84562612476461</v>
-      </c>
-      <c r="G41">
-        <v>1.076491995083831</v>
-      </c>
-      <c r="H41">
-        <v>-0.7442442573846902</v>
-      </c>
-      <c r="I41">
-        <v>1.069262038377534</v>
-      </c>
-      <c r="J41">
-        <v>0.4350014876132097</v>
-      </c>
-      <c r="K41">
-        <v>1.516717773299806</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2000,34 +1916,10 @@
         <v>50</v>
       </c>
       <c r="B42">
+        <v>3.4826062760352</v>
+      </c>
+      <c r="C42">
         <v>3.694617372890321</v>
-      </c>
-      <c r="C42">
-        <v>3.106565875954019</v>
-      </c>
-      <c r="D42">
-        <v>2.690405770837217</v>
-      </c>
-      <c r="E42">
-        <v>4.080548825881436</v>
-      </c>
-      <c r="F42">
-        <v>3.311414696200658</v>
-      </c>
-      <c r="G42">
-        <v>1.490678443732137</v>
-      </c>
-      <c r="H42">
-        <v>3.304184739494361</v>
-      </c>
-      <c r="I42">
-        <v>2.669924188730037</v>
-      </c>
-      <c r="J42">
-        <v>3.751640474416633</v>
-      </c>
-      <c r="K42">
-        <v>3.370198841117543</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2035,217 +1927,55 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>1.216530487278416</v>
-      </c>
-      <c r="C43">
-        <v>0.8003703821616144</v>
-      </c>
-      <c r="D43">
-        <v>2.190513437205834</v>
-      </c>
-      <c r="E43">
-        <v>1.421379307525055</v>
-      </c>
-      <c r="F43">
-        <v>-0.399356944943466</v>
-      </c>
-      <c r="G43">
-        <v>1.414149350818758</v>
-      </c>
-      <c r="H43">
-        <v>0.779888800054434</v>
-      </c>
-      <c r="I43">
-        <v>1.86160508574103</v>
-      </c>
-      <c r="J43">
-        <v>1.48016345244194</v>
-      </c>
-      <c r="K43">
-        <v>1.187701211075049</v>
+        <v>1.804581984214718</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>0.4476790584865185</v>
-      </c>
-      <c r="C44">
-        <v>1.837822113530738</v>
-      </c>
-      <c r="D44">
-        <v>1.068687983849959</v>
-      </c>
-      <c r="E44">
-        <v>-0.7520482686185619</v>
-      </c>
-      <c r="F44">
-        <v>1.061458027143662</v>
-      </c>
-      <c r="G44">
-        <v>0.427197476379338</v>
-      </c>
-      <c r="H44">
-        <v>1.508913762065934</v>
-      </c>
-      <c r="I44">
-        <v>1.127472128766844</v>
-      </c>
-      <c r="J44">
-        <v>0.8350098873999527</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>1.594404170131267</v>
-      </c>
-      <c r="C45">
-        <v>0.8252700404504878</v>
-      </c>
-      <c r="D45">
-        <v>-0.9954662120180333</v>
-      </c>
-      <c r="E45">
-        <v>0.8180400837441908</v>
-      </c>
-      <c r="F45">
-        <v>0.1837795329798666</v>
-      </c>
-      <c r="G45">
-        <v>1.265495818666463</v>
-      </c>
-      <c r="H45">
-        <v>0.8840541853673727</v>
-      </c>
-      <c r="I45">
-        <v>0.5915919440004813</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>0.4048306212132332</v>
-      </c>
-      <c r="C46">
-        <v>-1.415905631255288</v>
-      </c>
-      <c r="D46">
-        <v>0.3976006645069362</v>
-      </c>
-      <c r="E46">
-        <v>-0.236659886257388</v>
-      </c>
-      <c r="F46">
-        <v>0.8450563994292083</v>
-      </c>
-      <c r="G46">
-        <v>0.4636147661301181</v>
-      </c>
-      <c r="H46">
-        <v>0.1711525247632267</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>-1.433992460878194</v>
-      </c>
-      <c r="C47">
-        <v>0.3795138348840296</v>
-      </c>
-      <c r="D47">
-        <v>-0.2547467158802946</v>
-      </c>
-      <c r="E47">
-        <v>0.8269695698063018</v>
-      </c>
-      <c r="F47">
-        <v>0.4455279365072115</v>
-      </c>
-      <c r="G47">
-        <v>0.1530656951403201</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B48">
-        <v>0.4299722955860048</v>
-      </c>
-      <c r="C48">
-        <v>-0.2042882551783194</v>
-      </c>
-      <c r="D48">
-        <v>0.8774280305082769</v>
-      </c>
-      <c r="E48">
-        <v>0.4959863972091867</v>
-      </c>
-      <c r="F48">
-        <v>0.2035241558422953</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B49">
-        <v>-0.4160968922281114</v>
-      </c>
-      <c r="C49">
-        <v>0.6656193934584849</v>
-      </c>
-      <c r="D49">
-        <v>0.2841777601593947</v>
-      </c>
-      <c r="E49">
-        <v>-0.008284481207496679</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B50">
-        <v>0.5354267536149976</v>
-      </c>
-      <c r="C50">
-        <v>0.1539851203159074</v>
-      </c>
-      <c r="D50">
-        <v>-0.1384771210509839</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B51">
-        <v>-0.322788625881465</v>
-      </c>
-      <c r="C51">
-        <v>-0.6152508672483563</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B52">
-        <v>-0.2720993704486361</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/EXPORT/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -1397,7 +1397,7 @@
         <v>21.27469193725067</v>
       </c>
       <c r="K24">
-        <v>-11.48711790221631</v>
+        <v>-17.20414195516174</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1429,10 +1429,10 @@
         <v>21.49449238375797</v>
       </c>
       <c r="J25">
-        <v>-11.26731745570901</v>
+        <v>-16.98434150865444</v>
       </c>
       <c r="K25">
-        <v>-1.654999864369671</v>
+        <v>-3.386369312788844</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1461,13 +1461,13 @@
         <v>21.25587963006037</v>
       </c>
       <c r="I26">
-        <v>-11.50593020940661</v>
+        <v>-17.22295426235204</v>
       </c>
       <c r="J26">
-        <v>-1.893612618067272</v>
+        <v>-3.624982066486445</v>
       </c>
       <c r="K26">
-        <v>-0.8873332285498559</v>
+        <v>-0.9294641821589158</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1493,16 +1493,16 @@
         <v>21.22193891940732</v>
       </c>
       <c r="H27">
-        <v>-11.53987092005966</v>
+        <v>-17.25689497300509</v>
       </c>
       <c r="I27">
-        <v>-1.927553328720323</v>
+        <v>-3.658922777139496</v>
       </c>
       <c r="J27">
-        <v>-0.9212739392029067</v>
+        <v>-0.9634048928119666</v>
       </c>
       <c r="K27">
-        <v>-0.2016501322157628</v>
+        <v>0.3458441452769406</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1525,19 +1525,19 @@
         <v>21.34353434161936</v>
       </c>
       <c r="G28">
-        <v>-11.41827549784762</v>
+        <v>-17.13529955079305</v>
       </c>
       <c r="H28">
-        <v>-1.805957906508284</v>
+        <v>-3.537327354927458</v>
       </c>
       <c r="I28">
-        <v>-0.799678516990868</v>
+        <v>-0.8418094705999279</v>
       </c>
       <c r="J28">
-        <v>-0.08005471000372411</v>
+        <v>0.4674395674889793</v>
       </c>
       <c r="K28">
-        <v>-0.4435488022597001</v>
+        <v>1.988799384936469</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1557,22 +1557,22 @@
         <v>21.08471202290903</v>
       </c>
       <c r="F29">
-        <v>-11.67709781655795</v>
+        <v>-17.39412186950338</v>
       </c>
       <c r="G29">
-        <v>-2.064780225218616</v>
+        <v>-3.79614967363779</v>
       </c>
       <c r="H29">
-        <v>-1.0585008357012</v>
+        <v>-1.10063178931026</v>
       </c>
       <c r="I29">
-        <v>-0.3388770287140563</v>
+        <v>0.2086172487786471</v>
       </c>
       <c r="J29">
-        <v>-0.7023711209700323</v>
+        <v>1.729977066226137</v>
       </c>
       <c r="K29">
-        <v>0.3797766491722527</v>
+        <v>-4.035764575904229</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1589,25 +1589,25 @@
         <v>21.01664039420777</v>
       </c>
       <c r="E30">
-        <v>-11.74516944525921</v>
+        <v>-17.46219349820464</v>
       </c>
       <c r="F30">
-        <v>-2.13285185391987</v>
+        <v>-3.864221302339042</v>
       </c>
       <c r="G30">
-        <v>-1.126572464402453</v>
+        <v>-1.168703418011513</v>
       </c>
       <c r="H30">
-        <v>-0.4069486574153094</v>
+        <v>0.140545620077394</v>
       </c>
       <c r="I30">
-        <v>-0.7704427496712853</v>
+        <v>1.661905437524884</v>
       </c>
       <c r="J30">
-        <v>0.3117050204709997</v>
+        <v>-4.103836204605481</v>
       </c>
       <c r="K30">
-        <v>2.702016955263848</v>
+        <v>2.803854532616474</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1621,28 +1621,28 @@
         <v>20.86265968035404</v>
       </c>
       <c r="D31">
-        <v>-11.89915015911294</v>
+        <v>-17.61617421205837</v>
       </c>
       <c r="E31">
-        <v>-2.286832567773602</v>
+        <v>-4.018202016192776</v>
       </c>
       <c r="F31">
-        <v>-1.280553178256186</v>
+        <v>-1.322684131865246</v>
       </c>
       <c r="G31">
-        <v>-0.5609293712690421</v>
+        <v>-0.01343509377633867</v>
       </c>
       <c r="H31">
-        <v>-0.924423463525018</v>
+        <v>1.507924723671151</v>
       </c>
       <c r="I31">
-        <v>0.157724306617267</v>
+        <v>-4.257816918459215</v>
       </c>
       <c r="J31">
-        <v>2.548036241410115</v>
+        <v>2.649873818762741</v>
       </c>
       <c r="K31">
-        <v>-0.591809808882006</v>
+        <v>0.2395698154090965</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1653,31 +1653,31 @@
         <v>20.37954157561293</v>
       </c>
       <c r="C32">
-        <v>-12.38226826385405</v>
+        <v>-18.09929231679948</v>
       </c>
       <c r="D32">
-        <v>-2.769950672514712</v>
+        <v>-4.501320120933885</v>
       </c>
       <c r="E32">
-        <v>-1.763671282997296</v>
+        <v>-1.805802236606356</v>
       </c>
       <c r="F32">
-        <v>-1.044047476010152</v>
+        <v>-0.4965531985174484</v>
       </c>
       <c r="G32">
-        <v>-1.407541568266128</v>
+        <v>1.024806618930041</v>
       </c>
       <c r="H32">
-        <v>-0.3253937981238428</v>
+        <v>-4.740935023200324</v>
       </c>
       <c r="I32">
-        <v>2.064918136669005</v>
+        <v>2.166755714021631</v>
       </c>
       <c r="J32">
-        <v>-1.074927913623116</v>
+        <v>-0.2435482893320133</v>
       </c>
       <c r="K32">
-        <v>-0.08572079831543729</v>
+        <v>-1.938804334703323</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-13.41883240715896</v>
+        <v>-20.4108400473813</v>
       </c>
       <c r="C33">
-        <v>-3.80651481581962</v>
+        <v>-6.812867851515707</v>
       </c>
       <c r="D33">
-        <v>-2.800235426302204</v>
+        <v>-4.117349967188177</v>
       </c>
       <c r="E33">
-        <v>-2.08061161931506</v>
+        <v>-2.80810092909927</v>
       </c>
       <c r="F33">
-        <v>-2.444105711571036</v>
+        <v>-1.286741111651781</v>
       </c>
       <c r="G33">
-        <v>-1.361957941428751</v>
+        <v>-7.052482753782146</v>
       </c>
       <c r="H33">
-        <v>1.028353993364097</v>
+        <v>-0.1447920165601908</v>
       </c>
       <c r="I33">
-        <v>-2.111492056928024</v>
+        <v>-2.555096019913835</v>
       </c>
       <c r="J33">
-        <v>-1.122284941620346</v>
+        <v>-4.250352065285145</v>
       </c>
       <c r="K33">
-        <v>-0.5673493769863525</v>
+        <v>-1.311034623099504</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-3.031312973588916</v>
+        <v>-4.980277842704087</v>
       </c>
       <c r="C34">
-        <v>-2.0250335840715</v>
+        <v>-2.284759958376557</v>
       </c>
       <c r="D34">
-        <v>-1.305409777084356</v>
+        <v>-0.9755109202876501</v>
       </c>
       <c r="E34">
-        <v>-1.668903869340332</v>
+        <v>0.5458488971598395</v>
       </c>
       <c r="F34">
-        <v>-0.5867560991980473</v>
+        <v>-5.219892744970526</v>
       </c>
       <c r="G34">
-        <v>1.803555835594801</v>
+        <v>1.68779799225143</v>
       </c>
       <c r="H34">
-        <v>-1.33629021469732</v>
+        <v>-0.7225060111022149</v>
       </c>
       <c r="I34">
-        <v>-0.3470830993896418</v>
+        <v>-2.417762056473524</v>
       </c>
       <c r="J34">
-        <v>0.2078524652443515</v>
+        <v>0.5215553857121161</v>
       </c>
       <c r="K34">
-        <v>0.4198635620994732</v>
+        <v>-0.8573456354163971</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,31 +1755,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>-1.628737695120842</v>
+        <v>-1.909452872482039</v>
       </c>
       <c r="C35">
-        <v>-0.9091138881336978</v>
+        <v>-0.6002038343931317</v>
       </c>
       <c r="D35">
-        <v>-1.272607980389674</v>
+        <v>0.9211559830543579</v>
       </c>
       <c r="E35">
-        <v>-0.1904602102473887</v>
+        <v>-4.844585659076007</v>
       </c>
       <c r="F35">
-        <v>2.199851724545459</v>
+        <v>2.063105078145948</v>
       </c>
       <c r="G35">
-        <v>-0.9399943257466616</v>
+        <v>-0.3471989252076966</v>
       </c>
       <c r="H35">
-        <v>0.04921278956101682</v>
+        <v>-2.042454970579006</v>
       </c>
       <c r="I35">
-        <v>0.6041483541950101</v>
+        <v>0.8968624716066345</v>
       </c>
       <c r="J35">
-        <v>0.8161594510501318</v>
+        <v>-0.4820385495218787</v>
+      </c>
+      <c r="K35">
+        <v>1.022680634228276</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1787,28 +1790,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.8310215382396622</v>
+        <v>-0.3749684946957029</v>
       </c>
       <c r="C36">
-        <v>-1.194515630495638</v>
+        <v>1.146391322751787</v>
       </c>
       <c r="D36">
-        <v>-0.1123678603533531</v>
+        <v>-4.619350319378579</v>
       </c>
       <c r="E36">
-        <v>2.277944074439495</v>
+        <v>2.288340417843377</v>
       </c>
       <c r="F36">
-        <v>-0.8619019758526261</v>
+        <v>-0.1219635855102677</v>
       </c>
       <c r="G36">
-        <v>0.1273051394550524</v>
+        <v>-1.817219630881577</v>
       </c>
       <c r="H36">
-        <v>0.6822407040890457</v>
+        <v>1.122097811304063</v>
       </c>
       <c r="I36">
-        <v>0.8942518009441673</v>
+        <v>-0.2568032098244498</v>
+      </c>
+      <c r="J36">
+        <v>1.247915973925705</v>
+      </c>
+      <c r="K36">
+        <v>0.9211944755864938</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1816,25 +1825,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-1.315599971902208</v>
+        <v>1.14167028642729</v>
       </c>
       <c r="C37">
-        <v>-0.2334522017599235</v>
+        <v>-4.624071355703076</v>
       </c>
       <c r="D37">
-        <v>2.156859733032924</v>
+        <v>2.283619381518879</v>
       </c>
       <c r="E37">
-        <v>-0.9829863172591964</v>
+        <v>-0.1266846218347649</v>
       </c>
       <c r="F37">
-        <v>0.006220798048482024</v>
+        <v>-1.821940667206074</v>
       </c>
       <c r="G37">
-        <v>0.5611563626824754</v>
+        <v>1.117376774979566</v>
       </c>
       <c r="H37">
-        <v>0.773167459537597</v>
+        <v>-0.261524246148947</v>
+      </c>
+      <c r="I37">
+        <v>1.243194937601208</v>
+      </c>
+      <c r="J37">
+        <v>0.9164734392619965</v>
+      </c>
+      <c r="K37">
+        <v>1.754572496573351</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1842,22 +1860,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.3036179946087742</v>
+        <v>-4.896022371537698</v>
       </c>
       <c r="C38">
-        <v>2.086693940184074</v>
+        <v>2.011668365684257</v>
       </c>
       <c r="D38">
-        <v>-1.053152110108047</v>
+        <v>-0.3986356376693871</v>
       </c>
       <c r="E38">
-        <v>-0.06394499480036871</v>
+        <v>-2.093891683040697</v>
       </c>
       <c r="F38">
-        <v>0.4909905698336246</v>
+        <v>0.8454257591449439</v>
       </c>
       <c r="G38">
-        <v>0.7030016666887462</v>
+        <v>-0.5334752619835692</v>
+      </c>
+      <c r="H38">
+        <v>0.9712439217665854</v>
+      </c>
+      <c r="I38">
+        <v>0.6445224234273743</v>
+      </c>
+      <c r="J38">
+        <v>1.482621480738728</v>
+      </c>
+      <c r="K38">
+        <v>-1.197078432822523</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1865,19 +1895,34 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>2.398988588681159</v>
+        <v>2.832994207660627</v>
       </c>
       <c r="C39">
-        <v>-0.740857461610962</v>
+        <v>0.4226902043069828</v>
       </c>
       <c r="D39">
-        <v>0.2483496536967165</v>
+        <v>-1.272565841064327</v>
       </c>
       <c r="E39">
-        <v>0.8032852183307098</v>
+        <v>1.666751601121314</v>
       </c>
       <c r="F39">
-        <v>1.015296315185831</v>
+        <v>0.2878505799928007</v>
+      </c>
+      <c r="G39">
+        <v>1.792569763742955</v>
+      </c>
+      <c r="H39">
+        <v>1.465848265403744</v>
+      </c>
+      <c r="I39">
+        <v>2.303947322715098</v>
+      </c>
+      <c r="J39">
+        <v>-0.3757525908461526</v>
+      </c>
+      <c r="K39">
+        <v>0.8596701032167943</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1885,16 +1930,34 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.6974666779779877</v>
+        <v>-0.03790361708925488</v>
       </c>
       <c r="C40">
-        <v>0.2917404373296907</v>
+        <v>-1.733159662460564</v>
       </c>
       <c r="D40">
-        <v>0.8466760019636841</v>
+        <v>1.206157779725076</v>
       </c>
       <c r="E40">
-        <v>1.058687098818806</v>
+        <v>-0.172743241403437</v>
+      </c>
+      <c r="F40">
+        <v>1.331975942346718</v>
+      </c>
+      <c r="G40">
+        <v>1.005254444007507</v>
+      </c>
+      <c r="H40">
+        <v>1.843353501318861</v>
+      </c>
+      <c r="I40">
+        <v>-0.8363464122423903</v>
+      </c>
+      <c r="J40">
+        <v>0.3990762818205566</v>
+      </c>
+      <c r="K40">
+        <v>2.123380570563001</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1902,13 +1965,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0.6927480102843792</v>
+        <v>-1.502432366452369</v>
       </c>
       <c r="C41">
-        <v>1.247683574918372</v>
+        <v>1.436885075733271</v>
       </c>
       <c r="D41">
-        <v>1.459694671773494</v>
+        <v>0.05798405460475808</v>
+      </c>
+      <c r="E41">
+        <v>1.562703238354913</v>
+      </c>
+      <c r="F41">
+        <v>1.235981740015702</v>
+      </c>
+      <c r="G41">
+        <v>2.074080797327056</v>
+      </c>
+      <c r="H41">
+        <v>-0.6056191162341953</v>
+      </c>
+      <c r="I41">
+        <v>0.6298035778287516</v>
+      </c>
+      <c r="J41">
+        <v>2.354107866571197</v>
+      </c>
+      <c r="K41">
+        <v>2.720553059184225</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1916,10 +2000,34 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>3.4826062760352</v>
+        <v>2.021185630531559</v>
       </c>
       <c r="C42">
-        <v>3.694617372890321</v>
+        <v>0.6422846094030465</v>
+      </c>
+      <c r="D42">
+        <v>2.147003793153201</v>
+      </c>
+      <c r="E42">
+        <v>1.82028229481399</v>
+      </c>
+      <c r="F42">
+        <v>2.658381352125344</v>
+      </c>
+      <c r="G42">
+        <v>-0.02131856143590682</v>
+      </c>
+      <c r="H42">
+        <v>1.21410413262704</v>
+      </c>
+      <c r="I42">
+        <v>2.938408421369485</v>
+      </c>
+      <c r="J42">
+        <v>3.304853613982513</v>
+      </c>
+      <c r="K42">
+        <v>-2.170593826049543</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1927,55 +2035,217 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>1.804581984214718</v>
+        <v>2.59639870328499</v>
+      </c>
+      <c r="C43">
+        <v>4.101117887035145</v>
+      </c>
+      <c r="D43">
+        <v>3.774396388695934</v>
+      </c>
+      <c r="E43">
+        <v>4.612495446007288</v>
+      </c>
+      <c r="F43">
+        <v>1.932795532446037</v>
+      </c>
+      <c r="G43">
+        <v>3.168218226508984</v>
+      </c>
+      <c r="H43">
+        <v>4.892522515251429</v>
+      </c>
+      <c r="I43">
+        <v>5.258967707864457</v>
+      </c>
+      <c r="J43">
+        <v>-0.2164797321675991</v>
+      </c>
+      <c r="K43">
+        <v>3.144233349489796</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44">
+        <v>2.341506873006513</v>
+      </c>
+      <c r="C44">
+        <v>2.014785374667302</v>
+      </c>
+      <c r="D44">
+        <v>2.852884431978656</v>
+      </c>
+      <c r="E44">
+        <v>0.173184518417405</v>
+      </c>
+      <c r="F44">
+        <v>1.408607212480352</v>
+      </c>
+      <c r="G44">
+        <v>3.132911501222797</v>
+      </c>
+      <c r="H44">
+        <v>3.499356693835825</v>
+      </c>
+      <c r="I44">
+        <v>-1.976090746196231</v>
+      </c>
+      <c r="J44">
+        <v>1.384622335461164</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45">
+        <v>1.466561183616531</v>
+      </c>
+      <c r="C45">
+        <v>2.304660240927885</v>
+      </c>
+      <c r="D45">
+        <v>-0.3750396726333658</v>
+      </c>
+      <c r="E45">
+        <v>0.8603830214295811</v>
+      </c>
+      <c r="F45">
+        <v>2.584687310172026</v>
+      </c>
+      <c r="G45">
+        <v>2.951132502785054</v>
+      </c>
+      <c r="H45">
+        <v>-2.524314937247002</v>
+      </c>
+      <c r="I45">
+        <v>0.8363981444103927</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46">
+        <v>2.012044252255831</v>
+      </c>
+      <c r="C46">
+        <v>-0.6676556613054199</v>
+      </c>
+      <c r="D46">
+        <v>0.567767032757527</v>
+      </c>
+      <c r="E46">
+        <v>2.292071321499972</v>
+      </c>
+      <c r="F46">
+        <v>2.658516514113</v>
+      </c>
+      <c r="G46">
+        <v>-2.816930925919056</v>
+      </c>
+      <c r="H46">
+        <v>0.5437821557383387</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47">
+        <v>-0.9880269291625079</v>
+      </c>
+      <c r="C47">
+        <v>0.247395764900439</v>
+      </c>
+      <c r="D47">
+        <v>1.971700053642884</v>
+      </c>
+      <c r="E47">
+        <v>2.338145246255912</v>
+      </c>
+      <c r="F47">
+        <v>-3.137302193776144</v>
+      </c>
+      <c r="G47">
+        <v>0.2234108878812506</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>0.5533907096283328</v>
+      </c>
+      <c r="C48">
+        <v>2.277694998370778</v>
+      </c>
+      <c r="D48">
+        <v>2.644140190983806</v>
+      </c>
+      <c r="E48">
+        <v>-2.83130724904825</v>
+      </c>
+      <c r="F48">
+        <v>0.5294058326091444</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>1.9047312492914</v>
+      </c>
+      <c r="C49">
+        <v>2.271176441904428</v>
+      </c>
+      <c r="D49">
+        <v>-3.204270998127628</v>
+      </c>
+      <c r="E49">
+        <v>0.1564420835297668</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>2.102905296315023</v>
+      </c>
+      <c r="C50">
+        <v>-3.372542143717033</v>
+      </c>
+      <c r="D50">
+        <v>-0.01182906205963841</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>-3.650852129092033</v>
+      </c>
+      <c r="C51">
+        <v>-0.2901390474346385</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>-0.2631055417942008</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/EXPORT/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -614,21 +614,6 @@
       <c r="F2">
         <v>10.64506824977929</v>
       </c>
-      <c r="G2">
-        <v>12.26376372791949</v>
-      </c>
-      <c r="H2">
-        <v>3.403421458489778</v>
-      </c>
-      <c r="I2">
-        <v>-0.792678195651273</v>
-      </c>
-      <c r="J2">
-        <v>0.3089625251196302</v>
-      </c>
-      <c r="K2">
-        <v>-0.02465295233977383</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -655,15 +640,6 @@
       <c r="H3">
         <v>0.03406540321401419</v>
       </c>
-      <c r="I3">
-        <v>-0.2995500742453898</v>
-      </c>
-      <c r="J3">
-        <v>-5.603102064447102</v>
-      </c>
-      <c r="K3">
-        <v>-0.01815959571163894</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -684,21 +660,6 @@
       <c r="F4">
         <v>-0.6239761442944918</v>
       </c>
-      <c r="G4">
-        <v>-0.9575916217538958</v>
-      </c>
-      <c r="H4">
-        <v>-6.261143611955607</v>
-      </c>
-      <c r="I4">
-        <v>-0.6762011432201449</v>
-      </c>
-      <c r="J4">
-        <v>-0.189343437705237</v>
-      </c>
-      <c r="K4">
-        <v>-0.6648575429896981</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -725,15 +686,6 @@
       <c r="H5">
         <v>-2.478945033095127</v>
       </c>
-      <c r="I5">
-        <v>-2.954459138379588</v>
-      </c>
-      <c r="J5">
-        <v>-3.394245176626396</v>
-      </c>
-      <c r="K5">
-        <v>-3.169261098646797</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -754,21 +706,6 @@
       <c r="F6">
         <v>-2.704706471300374</v>
       </c>
-      <c r="G6">
-        <v>-3.180220576584834</v>
-      </c>
-      <c r="H6">
-        <v>-3.620006614831643</v>
-      </c>
-      <c r="I6">
-        <v>-3.395022536852044</v>
-      </c>
-      <c r="J6">
-        <v>0.6227217332973216</v>
-      </c>
-      <c r="K6">
-        <v>-2.590761078176971</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -795,15 +732,6 @@
       <c r="H7">
         <v>0.718599543276875</v>
       </c>
-      <c r="I7">
-        <v>-2.494883268197418</v>
-      </c>
-      <c r="J7">
-        <v>-4.044465105307359</v>
-      </c>
-      <c r="K7">
-        <v>-2.215547441765927</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -824,21 +752,6 @@
       <c r="F8">
         <v>1.481882312282928</v>
       </c>
-      <c r="G8">
-        <v>-1.731600499191365</v>
-      </c>
-      <c r="H8">
-        <v>-3.281182336301306</v>
-      </c>
-      <c r="I8">
-        <v>-1.452264672759874</v>
-      </c>
-      <c r="J8">
-        <v>2.413568948096263</v>
-      </c>
-      <c r="K8">
-        <v>1.798147729310906</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -865,15 +778,6 @@
       <c r="H9">
         <v>2.747173845358107</v>
       </c>
-      <c r="I9">
-        <v>2.13175262657275</v>
-      </c>
-      <c r="J9">
-        <v>-2.1008197196777</v>
-      </c>
-      <c r="K9">
-        <v>0.250693133815533</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -894,21 +798,6 @@
       <c r="F10">
         <v>4.88435391442395</v>
       </c>
-      <c r="G10">
-        <v>4.268932695638593</v>
-      </c>
-      <c r="H10">
-        <v>0.03636034938814303</v>
-      </c>
-      <c r="I10">
-        <v>2.387873202881376</v>
-      </c>
-      <c r="J10">
-        <v>0.001943369418806906</v>
-      </c>
-      <c r="K10">
-        <v>2.300647285953015</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -935,15 +824,6 @@
       <c r="H11">
         <v>-0.2033831877938512</v>
       </c>
-      <c r="I11">
-        <v>2.095320728740357</v>
-      </c>
-      <c r="J11">
-        <v>1.106274473400854</v>
-      </c>
-      <c r="K11">
-        <v>0.3131889001227057</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -964,21 +844,6 @@
       <c r="F12">
         <v>-0.448582338178253</v>
       </c>
-      <c r="G12">
-        <v>1.850121578355955</v>
-      </c>
-      <c r="H12">
-        <v>0.8610753230164521</v>
-      </c>
-      <c r="I12">
-        <v>0.06798974973830396</v>
-      </c>
-      <c r="J12">
-        <v>1.01710341998289</v>
-      </c>
-      <c r="K12">
-        <v>1.211175936625809</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -1005,15 +870,6 @@
       <c r="H13">
         <v>-0.1672122244788611</v>
       </c>
-      <c r="I13">
-        <v>0.02686029216405783</v>
-      </c>
-      <c r="J13">
-        <v>-0.965148829054984</v>
-      </c>
-      <c r="K13">
-        <v>0.6131702586774693</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1034,21 +890,6 @@
       <c r="F14">
         <v>-0.4346855641959594</v>
       </c>
-      <c r="G14">
-        <v>-0.2406130475530405</v>
-      </c>
-      <c r="H14">
-        <v>-1.232622168772082</v>
-      </c>
-      <c r="I14">
-        <v>0.345696918960371</v>
-      </c>
-      <c r="J14">
-        <v>1.205306186310523</v>
-      </c>
-      <c r="K14">
-        <v>-0.4142623890808467</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -1075,15 +916,6 @@
       <c r="H15">
         <v>1.304076534262425</v>
       </c>
-      <c r="I15">
-        <v>-0.3154920411289439</v>
-      </c>
-      <c r="J15">
-        <v>-0.5826454712909126</v>
-      </c>
-      <c r="K15">
-        <v>1.063866172219041</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1104,21 +936,6 @@
       <c r="F16">
         <v>1.400457715247099</v>
       </c>
-      <c r="G16">
-        <v>-0.2191108601442708</v>
-      </c>
-      <c r="H16">
-        <v>-0.4862642903062395</v>
-      </c>
-      <c r="I16">
-        <v>1.160247353203714</v>
-      </c>
-      <c r="J16">
-        <v>-0.9246467934414984</v>
-      </c>
-      <c r="K16">
-        <v>-0.5315677218489454</v>
-      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
@@ -1145,15 +962,6 @@
       <c r="H17">
         <v>-1.019930700938559</v>
       </c>
-      <c r="I17">
-        <v>-0.6268516293460065</v>
-      </c>
-      <c r="J17">
-        <v>-0.3814491558739665</v>
-      </c>
-      <c r="K17">
-        <v>-0.9969384340307814</v>
-      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
@@ -1186,9 +994,6 @@
       <c r="J18">
         <v>-1.661803706478604</v>
       </c>
-      <c r="K18">
-        <v>2.11586153557953</v>
-      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
@@ -1215,15 +1020,6 @@
       <c r="H19">
         <v>-1.783882250839135</v>
       </c>
-      <c r="I19">
-        <v>1.993782991219</v>
-      </c>
-      <c r="J19">
-        <v>0.2715303356424741</v>
-      </c>
-      <c r="K19">
-        <v>1.853096617145825</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
@@ -1256,9 +1052,6 @@
       <c r="J20">
         <v>0.0826241259576691</v>
       </c>
-      <c r="K20">
-        <v>-0.2647846081939306</v>
-      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
@@ -1285,15 +1078,6 @@
       <c r="H21">
         <v>0.2056209004927225</v>
       </c>
-      <c r="I21">
-        <v>-0.1417878336588771</v>
-      </c>
-      <c r="J21">
-        <v>2.204980384544332</v>
-      </c>
-      <c r="K21">
-        <v>-0.1837396975864851</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
@@ -1326,9 +1110,6 @@
       <c r="J22">
         <v>1.154949018876262</v>
       </c>
-      <c r="K22">
-        <v>4.021412896618147</v>
-      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -1358,12 +1139,6 @@
       <c r="I23">
         <v>1.284039430733205</v>
       </c>
-      <c r="J23">
-        <v>4.15050330847509</v>
-      </c>
-      <c r="K23">
-        <v>21.38680716368744</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
@@ -1390,15 +1165,6 @@
       <c r="H24">
         <v>1.171924204296435</v>
       </c>
-      <c r="I24">
-        <v>4.03838808203832</v>
-      </c>
-      <c r="J24">
-        <v>21.27469193725067</v>
-      </c>
-      <c r="K24">
-        <v>-17.20414195516174</v>
-      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
@@ -1466,9 +1232,6 @@
       <c r="J26">
         <v>-3.624982066486445</v>
       </c>
-      <c r="K26">
-        <v>-0.9294641821589158</v>
-      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
@@ -1498,12 +1261,6 @@
       <c r="I27">
         <v>-3.658922777139496</v>
       </c>
-      <c r="J27">
-        <v>-0.9634048928119666</v>
-      </c>
-      <c r="K27">
-        <v>0.3458441452769406</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -1530,15 +1287,6 @@
       <c r="H28">
         <v>-3.537327354927458</v>
       </c>
-      <c r="I28">
-        <v>-0.8418094705999279</v>
-      </c>
-      <c r="J28">
-        <v>0.4674395674889793</v>
-      </c>
-      <c r="K28">
-        <v>1.988799384936469</v>
-      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
@@ -1606,9 +1354,6 @@
       <c r="J30">
         <v>-4.103836204605481</v>
       </c>
-      <c r="K30">
-        <v>2.803854532616474</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -1638,12 +1383,6 @@
       <c r="I31">
         <v>-4.257816918459215</v>
       </c>
-      <c r="J31">
-        <v>2.649873818762741</v>
-      </c>
-      <c r="K31">
-        <v>0.2395698154090965</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
@@ -1670,15 +1409,6 @@
       <c r="H32">
         <v>-4.740935023200324</v>
       </c>
-      <c r="I32">
-        <v>2.166755714021631</v>
-      </c>
-      <c r="J32">
-        <v>-0.2435482893320133</v>
-      </c>
-      <c r="K32">
-        <v>-1.938804334703323</v>
-      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
@@ -1746,9 +1476,6 @@
       <c r="J34">
         <v>0.5215553857121161</v>
       </c>
-      <c r="K34">
-        <v>-0.8573456354163971</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
@@ -1778,12 +1505,6 @@
       <c r="I35">
         <v>0.8968624716066345</v>
       </c>
-      <c r="J35">
-        <v>-0.4820385495218787</v>
-      </c>
-      <c r="K35">
-        <v>1.022680634228276</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
@@ -1810,15 +1531,6 @@
       <c r="H36">
         <v>1.122097811304063</v>
       </c>
-      <c r="I36">
-        <v>-0.2568032098244498</v>
-      </c>
-      <c r="J36">
-        <v>1.247915973925705</v>
-      </c>
-      <c r="K36">
-        <v>0.9211944755864938</v>
-      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
@@ -1886,9 +1598,6 @@
       <c r="J38">
         <v>1.482621480738728</v>
       </c>
-      <c r="K38">
-        <v>-1.197078432822523</v>
-      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
@@ -1918,12 +1627,6 @@
       <c r="I39">
         <v>2.303947322715098</v>
       </c>
-      <c r="J39">
-        <v>-0.3757525908461526</v>
-      </c>
-      <c r="K39">
-        <v>0.8596701032167943</v>
-      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
@@ -1950,15 +1653,6 @@
       <c r="H40">
         <v>1.843353501318861</v>
       </c>
-      <c r="I40">
-        <v>-0.8363464122423903</v>
-      </c>
-      <c r="J40">
-        <v>0.3990762818205566</v>
-      </c>
-      <c r="K40">
-        <v>2.123380570563001</v>
-      </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
@@ -2026,9 +1720,6 @@
       <c r="J42">
         <v>3.304853613982513</v>
       </c>
-      <c r="K42">
-        <v>-2.170593826049543</v>
-      </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
@@ -2058,12 +1749,6 @@
       <c r="I43">
         <v>5.258967707864457</v>
       </c>
-      <c r="J43">
-        <v>-0.2164797321675991</v>
-      </c>
-      <c r="K43">
-        <v>3.144233349489796</v>
-      </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
@@ -2089,12 +1774,6 @@
       </c>
       <c r="H44">
         <v>3.499356693835825</v>
-      </c>
-      <c r="I44">
-        <v>-1.976090746196231</v>
-      </c>
-      <c r="J44">
-        <v>1.384622335461164</v>
       </c>
     </row>
     <row r="45" spans="1:11">
